--- a/5sem/22/tables/mn.xlsx
+++ b/5sem/22/tables/mn.xlsx
@@ -371,15 +371,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -394,7 +397,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -417,7 +420,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -440,7 +443,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -463,7 +466,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -484,6 +487,82 @@
       </c>
       <c r="G5" s="1">
         <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>2386</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6365</v>
+      </c>
+      <c r="D7">
+        <f>3*10^8/(C7*10^(-10))</f>
+        <v>471327572663000.75</v>
+      </c>
+      <c r="E7">
+        <f>D7*6.62*10^(-34)/(1.6*10^(-19))</f>
+        <v>1.9501178318931658</v>
+      </c>
+      <c r="F7">
+        <f>E7*0.01</f>
+        <v>1.950117831893166E-2</v>
+      </c>
+      <c r="I7">
+        <f>E8-E7</f>
+        <v>8.1387896421073025E-2</v>
+      </c>
+      <c r="J7">
+        <f>F8+F7</f>
+        <v>3.9816235602074049E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>2282</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6110</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D9" si="0">3*10^8/(C8*10^(-10))</f>
+        <v>490998363338788.81</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E9" si="1">D8*6.62*10^(-34)/(1.6*10^(-19))</f>
+        <v>2.0315057283142388</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F9" si="2">E8*0.01</f>
+        <v>2.0315057283142389E-2</v>
+      </c>
+      <c r="I8">
+        <f>I7/5</f>
+        <v>1.6277579284214604E-2</v>
+      </c>
+      <c r="J8">
+        <f>J7/5</f>
+        <v>7.9632471204148098E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>1616</v>
+      </c>
+      <c r="C9">
+        <v>5023</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>597252637865817.25</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>2.4711327891698192</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>2.4711327891698193E-2</v>
       </c>
     </row>
   </sheetData>
